--- a/experience/DQN/DQN_skelton-t.xlsx
+++ b/experience/DQN/DQN_skelton-t.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wagahai/Documents/h28_soturon/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15220" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="15225" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="skelton-t" sheetId="1" r:id="rId1"/>
     <sheet name="nohoho" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="skelton-t (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="chain_sket50" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -334,7 +332,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -345,11 +343,11 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -777,12 +775,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1">
@@ -1109,6 +1107,536 @@
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <f>SUM(A2:A51)</f>
+        <v>201</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:E52" si="0">SUM(B2:B51)</f>
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52" si="1">SUM(F2:F51)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
